--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -817,10 +817,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>57</v>
@@ -862,10 +862,10 @@
         <v>67</v>
       </c>
       <c r="Q5">
+        <v>64</v>
+      </c>
+      <c r="R5">
         <v>62</v>
-      </c>
-      <c r="R5">
-        <v>60</v>
       </c>
       <c r="S5">
         <v>64</v>
@@ -874,7 +874,7 @@
         <v>66</v>
       </c>
       <c r="U5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V5">
         <v>62</v>
@@ -886,7 +886,7 @@
         <v>72</v>
       </c>
       <c r="Y5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z5">
         <v>95</v>
@@ -904,7 +904,7 @@
         <v>81</v>
       </c>
       <c r="AE5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5">
         <v>100</v>

--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -820,10 +820,10 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>47</v>
@@ -835,7 +835,7 @@
         <v>61</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -850,7 +850,7 @@
         <v>75</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>63</v>
@@ -874,7 +874,7 @@
         <v>66</v>
       </c>
       <c r="U5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V5">
         <v>62</v>

--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -832,10 +832,10 @@
         <v>58</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -844,13 +844,13 @@
         <v>57</v>
       </c>
       <c r="K5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N5">
         <v>63</v>
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="W5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X5">
         <v>72</v>
@@ -895,7 +895,7 @@
         <v>66</v>
       </c>
       <c r="AB5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5">
         <v>73</v>
@@ -913,7 +913,7 @@
         <v>86</v>
       </c>
       <c r="AH5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI5">
         <v>85</v>

--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -942,7 +942,7 @@
         <v>45</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -954,7 +954,7 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L6">
         <v>57</v>
@@ -972,7 +972,7 @@
         <v>68</v>
       </c>
       <c r="Q6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R6">
         <v>68</v>
@@ -984,19 +984,19 @@
         <v>73</v>
       </c>
       <c r="U6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6">
         <v>69</v>
       </c>
       <c r="Y6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z6">
         <v>66</v>
@@ -1008,19 +1008,19 @@
         <v>84</v>
       </c>
       <c r="AC6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF6">
         <v>82</v>
       </c>
       <c r="AG6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH6">
         <v>99</v>
@@ -1029,7 +1029,7 @@
         <v>82</v>
       </c>
       <c r="AJ6">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -927,10 +927,10 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
         <v>49</v>
-      </c>
-      <c r="C6">
-        <v>47</v>
       </c>
       <c r="D6">
         <v>35</v>
@@ -939,7 +939,7 @@
         <v>44</v>
       </c>
       <c r="F6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>49</v>
@@ -951,55 +951,55 @@
         <v>45</v>
       </c>
       <c r="J6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <v>64</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6">
         <v>77</v>
       </c>
       <c r="P6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6">
         <v>73</v>
       </c>
       <c r="X6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y6">
         <v>70</v>
       </c>
       <c r="Z6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA6">
         <v>72</v>
@@ -1011,25 +1011,25 @@
         <v>81</v>
       </c>
       <c r="AD6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE6">
         <v>105</v>
       </c>
       <c r="AF6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6">
         <v>97</v>
       </c>
       <c r="AH6">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ6">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -933,16 +933,16 @@
         <v>49</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>46</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -960,7 +960,7 @@
         <v>58</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>56</v>
@@ -969,7 +969,7 @@
         <v>77</v>
       </c>
       <c r="P6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6">
         <v>60</v>
@@ -978,7 +978,7 @@
         <v>71</v>
       </c>
       <c r="S6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T6">
         <v>75</v>
@@ -987,7 +987,7 @@
         <v>70</v>
       </c>
       <c r="V6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6">
         <v>73</v>
@@ -996,13 +996,13 @@
         <v>71</v>
       </c>
       <c r="Y6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6">
         <v>67</v>
       </c>
       <c r="AA6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6">
         <v>84</v>
@@ -1020,16 +1020,16 @@
         <v>83</v>
       </c>
       <c r="AG6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH6">
         <v>100</v>
       </c>
       <c r="AI6">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ6">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:36">

--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -930,7 +930,7 @@
         <v>52</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>36</v>
@@ -942,7 +942,7 @@
         <v>46</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -954,10 +954,10 @@
         <v>57</v>
       </c>
       <c r="K6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6">
         <v>53</v>
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="U6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6">
         <v>79</v>
@@ -1040,19 +1040,19 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>39</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>64</v>
@@ -1061,16 +1061,16 @@
         <v>50</v>
       </c>
       <c r="J7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>69</v>
       </c>
       <c r="L7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>69</v>
@@ -1091,7 +1091,7 @@
         <v>68</v>
       </c>
       <c r="T7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U7">
         <v>75</v>
@@ -1100,7 +1100,7 @@
         <v>61</v>
       </c>
       <c r="W7">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X7">
         <v>78</v>
@@ -1109,10 +1109,10 @@
         <v>76</v>
       </c>
       <c r="Z7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB7">
         <v>81</v>
@@ -1124,10 +1124,10 @@
         <v>80</v>
       </c>
       <c r="AE7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG7">
         <v>97</v>
@@ -1139,7 +1139,7 @@
         <v>93</v>
       </c>
       <c r="AJ7">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:36">

--- a/12个月份各月的红球分布数据.xlsx
+++ b/12个月份各月的红球分布数据.xlsx
@@ -1040,16 +1040,16 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>47</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>46</v>
@@ -1064,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="K7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7">
         <v>71</v>
@@ -1073,13 +1073,13 @@
         <v>57</v>
       </c>
       <c r="N7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>55</v>
@@ -1100,25 +1100,25 @@
         <v>61</v>
       </c>
       <c r="W7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X7">
         <v>78</v>
       </c>
       <c r="Y7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB7">
         <v>81</v>
       </c>
       <c r="AC7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD7">
         <v>80</v>
@@ -1130,13 +1130,13 @@
         <v>96</v>
       </c>
       <c r="AG7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ7">
         <v>90</v>
